--- a/sample data.xlsx
+++ b/sample data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u89513\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U62521\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AD9218-D32A-482A-9934-7B04B670AA85}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016BDE61-F67B-4AE4-BA98-DC5FE4D2A989}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8925" xr2:uid="{30218C74-98FA-420B-8887-39280E7452B3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{30218C74-98FA-420B-8887-39280E7452B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -859,28 +859,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1198,1508 +1199,1509 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="8"/>
+    <col min="4" max="4" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>10001</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>10002</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>10003</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>10004</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>10005</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>10006</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>10007</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>10008</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>10009</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>10010</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>10011</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <v>10012</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <v>10013</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2">
+      <c r="B15" s="5"/>
+      <c r="C15" s="6">
         <v>10014</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="6">
         <v>10015</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <v>10016</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="6">
         <v>10017</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="6">
         <v>10018</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="6">
         <v>10019</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="6">
         <v>10020</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
         <v>10021</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <v>10022</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="6">
         <v>10023</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="6">
         <v>10024</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="6">
         <v>10025</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="6">
         <v>10026</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="6">
         <v>10027</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6">
         <v>10028</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="6">
         <v>10029</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6">
         <v>10030</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="6">
         <v>10031</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="6">
         <v>10032</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="6">
         <v>10033</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="6">
         <v>10034</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="6">
         <v>10035</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="6">
         <v>10036</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="6">
         <v>10037</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="6">
         <v>10038</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="6">
         <v>10039</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="6">
         <v>10040</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="6">
         <v>10041</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="6">
         <v>10042</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="6">
         <v>10043</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="6">
         <v>10044</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="6">
         <v>10045</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="6">
         <v>10046</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="6">
         <v>10047</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="2">
+      <c r="B49" s="5"/>
+      <c r="C49" s="6">
         <v>10048</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="6">
         <v>10049</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2">
+      <c r="B51" s="5"/>
+      <c r="C51" s="6">
         <v>10050</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="6">
         <v>10051</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="2">
+      <c r="B53" s="5"/>
+      <c r="C53" s="6">
         <v>10052</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="2">
+      <c r="B54" s="5"/>
+      <c r="C54" s="6">
         <v>10053</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="2">
+      <c r="B55" s="5"/>
+      <c r="C55" s="6">
         <v>10054</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="2">
+      <c r="B56" s="5"/>
+      <c r="C56" s="6">
         <v>10055</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="2">
+      <c r="B57" s="5"/>
+      <c r="C57" s="6">
         <v>10056</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="2">
+      <c r="B58" s="5"/>
+      <c r="C58" s="6">
         <v>10057</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="2">
+      <c r="B59" s="5"/>
+      <c r="C59" s="6">
         <v>10058</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="6">
         <v>10059</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="6">
         <v>10060</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="6">
         <v>10061</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="6">
         <v>10062</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="6">
         <v>10063</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="6">
         <v>10064</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="6">
         <v>10065</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="6">
         <v>10066</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="6">
         <v>10067</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="6">
         <v>10068</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="6">
         <v>10069</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="1"/>
-      <c r="C71" s="2">
+      <c r="B71" s="5"/>
+      <c r="C71" s="6">
         <v>10070</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="6">
         <v>10071</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="6">
         <v>10072</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="2">
+      <c r="B74" s="5"/>
+      <c r="C74" s="6">
         <v>10073</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="6">
         <v>10074</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="6">
         <v>10075</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="6">
         <v>10076</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B78" s="1"/>
-      <c r="C78" s="2">
+      <c r="B78" s="5"/>
+      <c r="C78" s="6">
         <v>10077</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="2">
+      <c r="B79" s="5"/>
+      <c r="C79" s="6">
         <v>10078</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="6">
         <v>10079</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D80" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="1"/>
-      <c r="C81" s="2">
+      <c r="B81" s="5"/>
+      <c r="C81" s="6">
         <v>10080</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="D81" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="6">
         <v>10081</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="6">
         <v>10082</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="6">
         <v>10083</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="6">
         <v>10084</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="6">
         <v>10085</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="2">
+      <c r="B87" s="5"/>
+      <c r="C87" s="6">
         <v>10086</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B88" s="1"/>
-      <c r="C88" s="2">
+      <c r="B88" s="5"/>
+      <c r="C88" s="6">
         <v>10087</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="6">
         <v>10088</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="5" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="B90" s="1" t="s">
+      <c r="A90" s="2"/>
+      <c r="B90" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="6">
         <v>10089</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E90" s="1"/>
+      <c r="E90" s="5"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/sample data.xlsx
+++ b/sample data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U62521\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016BDE61-F67B-4AE4-BA98-DC5FE4D2A989}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC731123-6AB0-4825-A2D3-57BC03D01608}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{30218C74-98FA-420B-8887-39280E7452B3}"/>
   </bookViews>
@@ -231,9 +231,6 @@
     <t>4 N Board Room</t>
   </si>
   <si>
-    <t>Seat</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -781,6 +778,9 @@
   </si>
   <si>
     <t>MXZ089</t>
+  </si>
+  <si>
+    <t>Seating</t>
   </si>
 </sst>
 </file>
@@ -1198,9 +1198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DB2D44-D7CB-488C-8793-45D956A49DEA}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1213,24 +1211,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -1239,15 +1237,15 @@
         <v>10001</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
@@ -1256,15 +1254,15 @@
         <v>10002</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
@@ -1273,15 +1271,15 @@
         <v>10003</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -1290,15 +1288,15 @@
         <v>10004</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>4</v>
@@ -1307,15 +1305,15 @@
         <v>10005</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -1324,32 +1322,32 @@
         <v>10006</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="6">
         <v>10007</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -1358,15 +1356,15 @@
         <v>10008</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>7</v>
@@ -1375,15 +1373,15 @@
         <v>10009</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
@@ -1392,15 +1390,15 @@
         <v>10010</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
@@ -1409,15 +1407,15 @@
         <v>10011</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1426,15 +1424,15 @@
         <v>10012</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>11</v>
@@ -1443,30 +1441,30 @@
         <v>10013</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6">
         <v>10014</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>12</v>
@@ -1475,15 +1473,15 @@
         <v>10015</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
@@ -1492,15 +1490,15 @@
         <v>10016</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>14</v>
@@ -1509,15 +1507,15 @@
         <v>10017</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>15</v>
@@ -1526,15 +1524,15 @@
         <v>10018</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>16</v>
@@ -1543,15 +1541,15 @@
         <v>10019</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
@@ -1560,15 +1558,15 @@
         <v>10020</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>18</v>
@@ -1577,15 +1575,15 @@
         <v>10021</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>19</v>
@@ -1594,15 +1592,15 @@
         <v>10022</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>20</v>
@@ -1611,15 +1609,15 @@
         <v>10023</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>21</v>
@@ -1628,15 +1626,15 @@
         <v>10024</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>22</v>
@@ -1645,15 +1643,15 @@
         <v>10025</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>23</v>
@@ -1662,15 +1660,15 @@
         <v>10026</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>24</v>
@@ -1679,30 +1677,30 @@
         <v>10027</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6">
         <v>10028</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>25</v>
@@ -1711,30 +1709,30 @@
         <v>10029</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6">
         <v>10030</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>26</v>
@@ -1743,15 +1741,15 @@
         <v>10031</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>27</v>
@@ -1760,15 +1758,15 @@
         <v>10032</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>28</v>
@@ -1777,15 +1775,15 @@
         <v>10033</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>29</v>
@@ -1794,15 +1792,15 @@
         <v>10034</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>30</v>
@@ -1811,15 +1809,15 @@
         <v>10035</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>31</v>
@@ -1828,15 +1826,15 @@
         <v>10036</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>32</v>
@@ -1845,15 +1843,15 @@
         <v>10037</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>33</v>
@@ -1862,15 +1860,15 @@
         <v>10038</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>34</v>
@@ -1879,15 +1877,15 @@
         <v>10039</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>35</v>
@@ -1896,15 +1894,15 @@
         <v>10040</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>36</v>
@@ -1913,15 +1911,15 @@
         <v>10041</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>37</v>
@@ -1930,15 +1928,15 @@
         <v>10042</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>38</v>
@@ -1947,15 +1945,15 @@
         <v>10043</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>39</v>
@@ -1964,15 +1962,15 @@
         <v>10044</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>40</v>
@@ -1981,15 +1979,15 @@
         <v>10045</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>40</v>
@@ -1998,15 +1996,15 @@
         <v>10046</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>41</v>
@@ -2015,30 +2013,30 @@
         <v>10047</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="6">
         <v>10048</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>42</v>
@@ -2047,30 +2045,30 @@
         <v>10049</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="6">
         <v>10050</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>43</v>
@@ -2079,120 +2077,120 @@
         <v>10051</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="6">
         <v>10052</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6">
         <v>10053</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6">
         <v>10054</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="6">
         <v>10055</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="6">
         <v>10056</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="6">
         <v>10057</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="6">
         <v>10058</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>44</v>
@@ -2201,15 +2199,15 @@
         <v>10059</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>45</v>
@@ -2218,15 +2216,15 @@
         <v>10060</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>46</v>
@@ -2235,15 +2233,15 @@
         <v>10061</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>47</v>
@@ -2252,15 +2250,15 @@
         <v>10062</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>48</v>
@@ -2269,15 +2267,15 @@
         <v>10063</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>49</v>
@@ -2286,15 +2284,15 @@
         <v>10064</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>50</v>
@@ -2303,15 +2301,15 @@
         <v>10065</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>51</v>
@@ -2320,15 +2318,15 @@
         <v>10066</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>52</v>
@@ -2337,15 +2335,15 @@
         <v>10067</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>53</v>
@@ -2354,15 +2352,15 @@
         <v>10068</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>54</v>
@@ -2371,30 +2369,30 @@
         <v>10069</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B71" s="5"/>
       <c r="C71" s="6">
         <v>10070</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>55</v>
@@ -2403,15 +2401,15 @@
         <v>10071</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>56</v>
@@ -2420,30 +2418,30 @@
         <v>10072</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="6">
         <v>10073</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>57</v>
@@ -2452,15 +2450,15 @@
         <v>10074</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>58</v>
@@ -2469,15 +2467,15 @@
         <v>10075</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>59</v>
@@ -2486,45 +2484,45 @@
         <v>10076</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6">
         <v>10077</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="6">
         <v>10078</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>60</v>
@@ -2533,30 +2531,30 @@
         <v>10079</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="6">
         <v>10080</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>61</v>
@@ -2565,15 +2563,15 @@
         <v>10081</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>62</v>
@@ -2582,15 +2580,15 @@
         <v>10082</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>63</v>
@@ -2599,15 +2597,15 @@
         <v>10083</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>64</v>
@@ -2616,15 +2614,15 @@
         <v>10084</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>65</v>
@@ -2633,45 +2631,45 @@
         <v>10085</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="6">
         <v>10086</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="6">
         <v>10087</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>66</v>
@@ -2680,10 +2678,10 @@
         <v>10088</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2695,7 +2693,7 @@
         <v>10089</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E90" s="5"/>
     </row>

--- a/sample data.xlsx
+++ b/sample data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U62521\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC731123-6AB0-4825-A2D3-57BC03D01608}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17033928-D61B-4952-8193-FCDC5963940B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{30218C74-98FA-420B-8887-39280E7452B3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="251">
   <si>
     <t>Santhosh Kurian Mathew</t>
   </si>
@@ -778,9 +778,6 @@
   </si>
   <si>
     <t>MXZ089</t>
-  </si>
-  <si>
-    <t>Seating</t>
   </si>
 </sst>
 </file>
@@ -859,11 +856,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1198,1504 +1192,1506 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DB2D44-D7CB-488C-8793-45D956A49DEA}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="8"/>
-    <col min="4" max="4" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>10001</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>10002</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>10003</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>10004</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>10005</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>10006</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>10007</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>10008</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>10009</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>10010</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>10011</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>10012</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>10013</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5">
         <v>10014</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>10015</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>10016</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>10017</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>10018</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>10019</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>10020</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>10021</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>10022</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>10023</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>10024</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>10025</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>10026</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>10027</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5">
         <v>10028</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>10029</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5">
         <v>10030</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>10031</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>10032</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>10033</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>10034</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>10035</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>10036</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>10037</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>10038</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>10039</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>10040</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>10041</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>10042</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>10043</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>10044</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>10045</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>10046</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>10047</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6">
+      <c r="B49" s="4"/>
+      <c r="C49" s="5">
         <v>10048</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>10049</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6">
+      <c r="B51" s="4"/>
+      <c r="C51" s="5">
         <v>10050</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>10051</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="6">
+      <c r="B53" s="4"/>
+      <c r="C53" s="5">
         <v>10052</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="6">
+      <c r="B54" s="4"/>
+      <c r="C54" s="5">
         <v>10053</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="6">
+      <c r="B55" s="4"/>
+      <c r="C55" s="5">
         <v>10054</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="6">
+      <c r="B56" s="4"/>
+      <c r="C56" s="5">
         <v>10055</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="6">
+      <c r="B57" s="4"/>
+      <c r="C57" s="5">
         <v>10056</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6">
+      <c r="B58" s="4"/>
+      <c r="C58" s="5">
         <v>10057</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="6">
+      <c r="B59" s="4"/>
+      <c r="C59" s="5">
         <v>10058</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="5">
         <v>10059</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="5">
         <v>10060</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>10061</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>10062</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>10063</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>10064</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>10065</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>10066</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5">
         <v>10067</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <v>10068</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="5">
         <v>10069</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="6">
+      <c r="B71" s="4"/>
+      <c r="C71" s="5">
         <v>10070</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="5">
         <v>10071</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E72" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="5">
         <v>10072</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E73" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="6">
+      <c r="B74" s="4"/>
+      <c r="C74" s="5">
         <v>10073</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="5">
         <v>10074</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E75" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="5">
         <v>10075</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C77" s="5">
         <v>10076</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="6">
+      <c r="B78" s="4"/>
+      <c r="C78" s="5">
         <v>10077</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="6">
+      <c r="B79" s="4"/>
+      <c r="C79" s="5">
         <v>10078</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="5">
         <v>10079</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="6">
+      <c r="B81" s="4"/>
+      <c r="C81" s="5">
         <v>10080</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="5">
         <v>10081</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="5">
         <v>10082</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="5">
         <v>10083</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="5">
         <v>10084</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E85" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="5">
         <v>10085</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E86" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="6">
+      <c r="B87" s="4"/>
+      <c r="C87" s="5">
         <v>10086</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="6">
+      <c r="B88" s="4"/>
+      <c r="C88" s="5">
         <v>10087</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E88" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="5">
         <v>10088</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E89" s="4" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2"/>
-      <c r="B90" s="5" t="s">
+      <c r="A90" s="1"/>
+      <c r="B90" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="5">
         <v>10089</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E90" s="5"/>
+      <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/sample data.xlsx
+++ b/sample data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U62521\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17033928-D61B-4952-8193-FCDC5963940B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5014723A-4613-4FB8-A6F3-2FAF312A7AC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{30218C74-98FA-420B-8887-39280E7452B3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="252">
   <si>
     <t>Santhosh Kurian Mathew</t>
   </si>
@@ -246,9 +246,6 @@
     <t>Madg</t>
   </si>
   <si>
-    <t>ABCD-1-4E-404</t>
-  </si>
-  <si>
     <t>ABCD-1-4E-405</t>
   </si>
   <si>
@@ -778,6 +775,12 @@
   </si>
   <si>
     <t>MXZ089</t>
+  </si>
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
+    <t>64</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1196,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,8 +1209,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
+      <c r="A1" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>68</v>
@@ -1224,7 +1227,7 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1233,15 +1236,15 @@
         <v>10001</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1250,15 +1253,15 @@
         <v>10002</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -1267,15 +1270,15 @@
         <v>10003</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1284,15 +1287,15 @@
         <v>10004</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -1301,15 +1304,15 @@
         <v>10005</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -1318,15 +1321,15 @@
         <v>10006</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>72</v>
@@ -1335,15 +1338,15 @@
         <v>10007</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
@@ -1352,15 +1355,15 @@
         <v>10008</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -1369,15 +1372,15 @@
         <v>10009</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
@@ -1386,15 +1389,15 @@
         <v>10010</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
@@ -1403,15 +1406,15 @@
         <v>10011</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -1420,15 +1423,15 @@
         <v>10012</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -1437,30 +1440,30 @@
         <v>10013</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5">
         <v>10014</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -1469,15 +1472,15 @@
         <v>10015</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -1486,15 +1489,15 @@
         <v>10016</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -1503,15 +1506,15 @@
         <v>10017</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>15</v>
@@ -1520,15 +1523,15 @@
         <v>10018</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>16</v>
@@ -1537,15 +1540,15 @@
         <v>10019</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
@@ -1554,15 +1557,15 @@
         <v>10020</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>18</v>
@@ -1571,15 +1574,15 @@
         <v>10021</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>19</v>
@@ -1588,15 +1591,15 @@
         <v>10022</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>20</v>
@@ -1605,15 +1608,15 @@
         <v>10023</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>21</v>
@@ -1622,15 +1625,15 @@
         <v>10024</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>22</v>
@@ -1639,15 +1642,15 @@
         <v>10025</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>23</v>
@@ -1656,15 +1659,15 @@
         <v>10026</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>24</v>
@@ -1673,30 +1676,30 @@
         <v>10027</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5">
         <v>10028</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>25</v>
@@ -1705,30 +1708,30 @@
         <v>10029</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="5">
         <v>10030</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>26</v>
@@ -1737,15 +1740,15 @@
         <v>10031</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>27</v>
@@ -1754,15 +1757,15 @@
         <v>10032</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>28</v>
@@ -1771,15 +1774,15 @@
         <v>10033</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>29</v>
@@ -1788,15 +1791,15 @@
         <v>10034</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>30</v>
@@ -1805,15 +1808,15 @@
         <v>10035</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>31</v>
@@ -1822,15 +1825,15 @@
         <v>10036</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>32</v>
@@ -1839,15 +1842,15 @@
         <v>10037</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>33</v>
@@ -1856,15 +1859,15 @@
         <v>10038</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>34</v>
@@ -1873,15 +1876,15 @@
         <v>10039</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>35</v>
@@ -1890,15 +1893,15 @@
         <v>10040</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>36</v>
@@ -1907,15 +1910,15 @@
         <v>10041</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>37</v>
@@ -1924,15 +1927,15 @@
         <v>10042</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>38</v>
@@ -1941,15 +1944,15 @@
         <v>10043</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>39</v>
@@ -1958,15 +1961,15 @@
         <v>10044</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>40</v>
@@ -1975,15 +1978,15 @@
         <v>10045</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>40</v>
@@ -1992,15 +1995,15 @@
         <v>10046</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>41</v>
@@ -2009,30 +2012,30 @@
         <v>10047</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5">
         <v>10048</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>42</v>
@@ -2041,30 +2044,30 @@
         <v>10049</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5">
         <v>10050</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>43</v>
@@ -2073,120 +2076,120 @@
         <v>10051</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="5">
         <v>10052</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="5">
         <v>10053</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="5">
         <v>10054</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="5">
         <v>10055</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="5">
         <v>10056</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="5">
         <v>10057</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="5">
         <v>10058</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>44</v>
@@ -2195,15 +2198,15 @@
         <v>10059</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>45</v>
@@ -2212,15 +2215,15 @@
         <v>10060</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>46</v>
@@ -2229,15 +2232,15 @@
         <v>10061</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>47</v>
@@ -2246,15 +2249,15 @@
         <v>10062</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>48</v>
@@ -2263,15 +2266,15 @@
         <v>10063</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>49</v>
@@ -2280,15 +2283,15 @@
         <v>10064</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>50</v>
@@ -2297,15 +2300,15 @@
         <v>10065</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>51</v>
@@ -2314,15 +2317,15 @@
         <v>10066</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>52</v>
@@ -2331,15 +2334,15 @@
         <v>10067</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>53</v>
@@ -2348,15 +2351,15 @@
         <v>10068</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>54</v>
@@ -2365,30 +2368,30 @@
         <v>10069</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="5">
         <v>10070</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>55</v>
@@ -2397,15 +2400,15 @@
         <v>10071</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
@@ -2414,30 +2417,30 @@
         <v>10072</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="5">
         <v>10073</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>57</v>
@@ -2446,15 +2449,15 @@
         <v>10074</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>58</v>
@@ -2463,15 +2466,15 @@
         <v>10075</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>59</v>
@@ -2480,45 +2483,45 @@
         <v>10076</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="5">
         <v>10077</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="5">
         <v>10078</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>60</v>
@@ -2527,30 +2530,30 @@
         <v>10079</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="5">
         <v>10080</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>61</v>
@@ -2559,15 +2562,15 @@
         <v>10081</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>62</v>
@@ -2576,15 +2579,15 @@
         <v>10082</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>63</v>
@@ -2593,15 +2596,15 @@
         <v>10083</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>64</v>
@@ -2610,15 +2613,15 @@
         <v>10084</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>65</v>
@@ -2627,45 +2630,45 @@
         <v>10085</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="5">
         <v>10086</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="5">
         <v>10087</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>66</v>
@@ -2674,10 +2677,10 @@
         <v>10088</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2689,7 +2692,7 @@
         <v>10089</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E90" s="4"/>
     </row>

--- a/sample data.xlsx
+++ b/sample data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U62521\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5014723A-4613-4FB8-A6F3-2FAF312A7AC4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7828ABAB-6A92-4FE9-8602-97A3FC9FD276}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{30218C74-98FA-420B-8887-39280E7452B3}"/>
   </bookViews>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E1" activeCellId="4" sqref="A1:A1048576 B1:B1048576 C1:C1048576 D1:D1048576 E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sample data.xlsx
+++ b/sample data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U62521\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7828ABAB-6A92-4FE9-8602-97A3FC9FD276}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE48822D-58C3-4CC2-8812-5948BA5680A4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{30218C74-98FA-420B-8887-39280E7452B3}"/>
   </bookViews>
@@ -246,9 +246,6 @@
     <t>Madg</t>
   </si>
   <si>
-    <t>ABCD-1-4E-405</t>
-  </si>
-  <si>
     <t>ABCD-1-4E-406</t>
   </si>
   <si>
@@ -781,6 +778,9 @@
   </si>
   <si>
     <t>64</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="4" sqref="A1:A1048576 B1:B1048576 C1:C1048576 D1:D1048576 E1:E1048576"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,11 +1206,12 @@
     <col min="3" max="3" width="9.140625" style="7"/>
     <col min="4" max="4" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>68</v>
@@ -1227,7 +1228,7 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1236,15 +1237,15 @@
         <v>10001</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1253,15 +1254,15 @@
         <v>10002</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -1270,15 +1271,15 @@
         <v>10003</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1287,15 +1288,15 @@
         <v>10004</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -1304,15 +1305,15 @@
         <v>10005</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -1321,15 +1322,15 @@
         <v>10006</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>72</v>
@@ -1338,15 +1339,15 @@
         <v>10007</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
@@ -1355,15 +1356,15 @@
         <v>10008</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -1372,15 +1373,15 @@
         <v>10009</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
@@ -1389,15 +1390,15 @@
         <v>10010</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
@@ -1406,15 +1407,15 @@
         <v>10011</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -1423,15 +1424,15 @@
         <v>10012</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -1440,30 +1441,30 @@
         <v>10013</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5">
         <v>10014</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -1472,15 +1473,15 @@
         <v>10015</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -1489,15 +1490,15 @@
         <v>10016</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -1506,15 +1507,15 @@
         <v>10017</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>15</v>
@@ -1523,15 +1524,15 @@
         <v>10018</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>16</v>
@@ -1540,15 +1541,15 @@
         <v>10019</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
@@ -1557,15 +1558,15 @@
         <v>10020</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>18</v>
@@ -1574,15 +1575,15 @@
         <v>10021</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>19</v>
@@ -1591,15 +1592,15 @@
         <v>10022</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>20</v>
@@ -1608,15 +1609,15 @@
         <v>10023</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>21</v>
@@ -1625,15 +1626,15 @@
         <v>10024</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>22</v>
@@ -1642,15 +1643,15 @@
         <v>10025</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>23</v>
@@ -1659,15 +1660,15 @@
         <v>10026</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>24</v>
@@ -1676,30 +1677,30 @@
         <v>10027</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5">
         <v>10028</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>25</v>
@@ -1708,30 +1709,30 @@
         <v>10029</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="5">
         <v>10030</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>26</v>
@@ -1740,15 +1741,15 @@
         <v>10031</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>27</v>
@@ -1757,15 +1758,15 @@
         <v>10032</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>28</v>
@@ -1774,15 +1775,15 @@
         <v>10033</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>29</v>
@@ -1791,15 +1792,15 @@
         <v>10034</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>30</v>
@@ -1808,15 +1809,15 @@
         <v>10035</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>31</v>
@@ -1825,15 +1826,15 @@
         <v>10036</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>32</v>
@@ -1842,15 +1843,15 @@
         <v>10037</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>33</v>
@@ -1859,15 +1860,15 @@
         <v>10038</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>34</v>
@@ -1876,15 +1877,15 @@
         <v>10039</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>35</v>
@@ -1893,15 +1894,15 @@
         <v>10040</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>36</v>
@@ -1910,15 +1911,15 @@
         <v>10041</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>37</v>
@@ -1927,15 +1928,15 @@
         <v>10042</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>38</v>
@@ -1944,15 +1945,15 @@
         <v>10043</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>39</v>
@@ -1961,15 +1962,15 @@
         <v>10044</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>40</v>
@@ -1978,15 +1979,15 @@
         <v>10045</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>40</v>
@@ -1995,15 +1996,15 @@
         <v>10046</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>41</v>
@@ -2012,30 +2013,30 @@
         <v>10047</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5">
         <v>10048</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>42</v>
@@ -2044,30 +2045,30 @@
         <v>10049</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5">
         <v>10050</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>43</v>
@@ -2076,120 +2077,120 @@
         <v>10051</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="5">
         <v>10052</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="5">
         <v>10053</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="5">
         <v>10054</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="5">
         <v>10055</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="5">
         <v>10056</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="5">
         <v>10057</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="5">
         <v>10058</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>44</v>
@@ -2198,15 +2199,15 @@
         <v>10059</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>45</v>
@@ -2215,15 +2216,15 @@
         <v>10060</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>46</v>
@@ -2232,15 +2233,15 @@
         <v>10061</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>47</v>
@@ -2249,15 +2250,15 @@
         <v>10062</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>48</v>
@@ -2266,15 +2267,15 @@
         <v>10063</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>49</v>
@@ -2283,15 +2284,15 @@
         <v>10064</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>50</v>
@@ -2300,15 +2301,15 @@
         <v>10065</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>51</v>
@@ -2317,15 +2318,15 @@
         <v>10066</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>52</v>
@@ -2334,15 +2335,15 @@
         <v>10067</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>53</v>
@@ -2351,15 +2352,15 @@
         <v>10068</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>54</v>
@@ -2368,30 +2369,30 @@
         <v>10069</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="5">
         <v>10070</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>55</v>
@@ -2400,15 +2401,15 @@
         <v>10071</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
@@ -2417,30 +2418,30 @@
         <v>10072</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="5">
         <v>10073</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>57</v>
@@ -2449,15 +2450,15 @@
         <v>10074</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>58</v>
@@ -2466,15 +2467,15 @@
         <v>10075</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>59</v>
@@ -2483,45 +2484,45 @@
         <v>10076</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="5">
         <v>10077</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="5">
         <v>10078</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>60</v>
@@ -2530,30 +2531,30 @@
         <v>10079</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="5">
         <v>10080</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>61</v>
@@ -2562,15 +2563,15 @@
         <v>10081</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>62</v>
@@ -2579,15 +2580,15 @@
         <v>10082</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>63</v>
@@ -2596,15 +2597,15 @@
         <v>10083</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>64</v>
@@ -2613,15 +2614,15 @@
         <v>10084</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>65</v>
@@ -2630,45 +2631,45 @@
         <v>10085</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="5">
         <v>10086</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="5">
         <v>10087</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>66</v>
@@ -2677,10 +2678,10 @@
         <v>10088</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2692,7 +2693,7 @@
         <v>10089</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E90" s="4"/>
     </row>

--- a/sample data.xlsx
+++ b/sample data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U62521\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE48822D-58C3-4CC2-8812-5948BA5680A4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590DB73C-7288-4582-8105-D7A8BC1E76EC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{30218C74-98FA-420B-8887-39280E7452B3}"/>
   </bookViews>
@@ -246,9 +246,6 @@
     <t>Madg</t>
   </si>
   <si>
-    <t>ABCD-1-4E-406</t>
-  </si>
-  <si>
     <t>ABCD-1-4E-407</t>
   </si>
   <si>
@@ -781,6 +778,9 @@
   </si>
   <si>
     <t>54</t>
+  </si>
+  <si>
+    <t>406</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1196,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1211,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>68</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1237,15 +1237,15 @@
         <v>10001</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1254,15 +1254,15 @@
         <v>10002</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -1271,15 +1271,15 @@
         <v>10003</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1288,15 +1288,15 @@
         <v>10004</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -1305,15 +1305,15 @@
         <v>10005</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -1322,15 +1322,15 @@
         <v>10006</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>72</v>
@@ -1339,15 +1339,15 @@
         <v>10007</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
@@ -1356,15 +1356,15 @@
         <v>10008</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -1373,15 +1373,15 @@
         <v>10009</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>8</v>
@@ -1390,15 +1390,15 @@
         <v>10010</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>9</v>
@@ -1407,15 +1407,15 @@
         <v>10011</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -1424,15 +1424,15 @@
         <v>10012</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -1441,30 +1441,30 @@
         <v>10013</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5">
         <v>10014</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
@@ -1473,15 +1473,15 @@
         <v>10015</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -1490,15 +1490,15 @@
         <v>10016</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>14</v>
@@ -1507,15 +1507,15 @@
         <v>10017</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>15</v>
@@ -1524,15 +1524,15 @@
         <v>10018</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>16</v>
@@ -1541,15 +1541,15 @@
         <v>10019</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>17</v>
@@ -1558,15 +1558,15 @@
         <v>10020</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>18</v>
@@ -1575,15 +1575,15 @@
         <v>10021</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>19</v>
@@ -1592,15 +1592,15 @@
         <v>10022</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>20</v>
@@ -1609,15 +1609,15 @@
         <v>10023</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>21</v>
@@ -1626,15 +1626,15 @@
         <v>10024</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>22</v>
@@ -1643,15 +1643,15 @@
         <v>10025</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>23</v>
@@ -1660,15 +1660,15 @@
         <v>10026</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>24</v>
@@ -1677,30 +1677,30 @@
         <v>10027</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5">
         <v>10028</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>25</v>
@@ -1709,30 +1709,30 @@
         <v>10029</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="5">
         <v>10030</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>26</v>
@@ -1741,15 +1741,15 @@
         <v>10031</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>27</v>
@@ -1758,15 +1758,15 @@
         <v>10032</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>28</v>
@@ -1775,15 +1775,15 @@
         <v>10033</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>29</v>
@@ -1792,15 +1792,15 @@
         <v>10034</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>30</v>
@@ -1809,15 +1809,15 @@
         <v>10035</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>31</v>
@@ -1826,15 +1826,15 @@
         <v>10036</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>32</v>
@@ -1843,15 +1843,15 @@
         <v>10037</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>33</v>
@@ -1860,15 +1860,15 @@
         <v>10038</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>34</v>
@@ -1877,15 +1877,15 @@
         <v>10039</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>35</v>
@@ -1894,15 +1894,15 @@
         <v>10040</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>36</v>
@@ -1911,15 +1911,15 @@
         <v>10041</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>37</v>
@@ -1928,15 +1928,15 @@
         <v>10042</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>38</v>
@@ -1945,15 +1945,15 @@
         <v>10043</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>39</v>
@@ -1962,15 +1962,15 @@
         <v>10044</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>40</v>
@@ -1979,15 +1979,15 @@
         <v>10045</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>40</v>
@@ -1996,15 +1996,15 @@
         <v>10046</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>41</v>
@@ -2013,30 +2013,30 @@
         <v>10047</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5">
         <v>10048</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>42</v>
@@ -2045,30 +2045,30 @@
         <v>10049</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5">
         <v>10050</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>43</v>
@@ -2077,120 +2077,120 @@
         <v>10051</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="5">
         <v>10052</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="5">
         <v>10053</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="5">
         <v>10054</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="5">
         <v>10055</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="5">
         <v>10056</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="5">
         <v>10057</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="5">
         <v>10058</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>44</v>
@@ -2199,15 +2199,15 @@
         <v>10059</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>45</v>
@@ -2216,15 +2216,15 @@
         <v>10060</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>46</v>
@@ -2233,15 +2233,15 @@
         <v>10061</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>47</v>
@@ -2250,15 +2250,15 @@
         <v>10062</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>48</v>
@@ -2267,15 +2267,15 @@
         <v>10063</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>49</v>
@@ -2284,15 +2284,15 @@
         <v>10064</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>50</v>
@@ -2301,15 +2301,15 @@
         <v>10065</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>51</v>
@@ -2318,15 +2318,15 @@
         <v>10066</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>52</v>
@@ -2335,15 +2335,15 @@
         <v>10067</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>53</v>
@@ -2352,15 +2352,15 @@
         <v>10068</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>54</v>
@@ -2369,30 +2369,30 @@
         <v>10069</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="5">
         <v>10070</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>55</v>
@@ -2401,15 +2401,15 @@
         <v>10071</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
@@ -2418,30 +2418,30 @@
         <v>10072</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="5">
         <v>10073</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>57</v>
@@ -2450,15 +2450,15 @@
         <v>10074</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>58</v>
@@ -2467,15 +2467,15 @@
         <v>10075</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>59</v>
@@ -2484,45 +2484,45 @@
         <v>10076</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="5">
         <v>10077</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="5">
         <v>10078</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>60</v>
@@ -2531,30 +2531,30 @@
         <v>10079</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="5">
         <v>10080</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>61</v>
@@ -2563,15 +2563,15 @@
         <v>10081</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>62</v>
@@ -2580,15 +2580,15 @@
         <v>10082</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>63</v>
@@ -2597,15 +2597,15 @@
         <v>10083</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>64</v>
@@ -2614,15 +2614,15 @@
         <v>10084</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>65</v>
@@ -2631,45 +2631,45 @@
         <v>10085</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="5">
         <v>10086</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="5">
         <v>10087</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>66</v>
@@ -2678,10 +2678,10 @@
         <v>10088</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2693,7 +2693,7 @@
         <v>10089</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E90" s="4"/>
     </row>
